--- a/Bus Planning Casus 2.xlsx
+++ b/Bus Planning Casus 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/872575_fontys_nl/Documents/Documenten/Python/PJ5 Dataset/Casus 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/714af6a2766708e6/Python/PJ5ProjectGroep4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="23" documentId="11_0399E22E9067360E62355476585DCE3A87431D38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C64A5CFC-3814-4658-88DF-B2968AD0F97E}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,6 +284,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,7 +329,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,7 +632,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2268,20 +2269,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2304,6 +2305,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2311,12 +2320,4 @@
     <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>